--- a/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
+++ b/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\IRA\src\main\resources\com\kh\IRA\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\IRA\src\main\resources\com\kh\PRISM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72779A10-094B-47DA-8607-BD346871DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35889882-AF64-41D2-AD3B-6F20FFDE4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,87 +129,69 @@
     <t>Recall_Quiz_Description</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CreateRegular</t>
+  </si>
+  <si>
+    <t>Regular_Assessment</t>
+  </si>
+  <si>
+    <t>Regular_Assessment_Description</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CreateFree</t>
+  </si>
+  <si>
+    <t>Free_Assessment</t>
+  </si>
+  <si>
+    <t>Free_Assessment_Description</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>y.adityaprasad@gmail.com</t>
+  </si>
+  <si>
+    <t>khmanagertest@khcodelab.com</t>
+  </si>
+  <si>
     <t>This is a recall quiz.
-No Pass percentage applicable
-No limits applicable</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>CreateRegular</t>
-  </si>
-  <si>
-    <t>Regular_Assessment</t>
-  </si>
-  <si>
-    <t>Regular_Assessment_Description</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CreateFree</t>
-  </si>
-  <si>
-    <t>Free_Assessment</t>
-  </si>
-  <si>
-    <t>Free_Assessment_Description</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>30</t>
+1. No Pass percentage applicable
+2. No limits applicable</t>
   </si>
   <si>
     <t>1.This online test requires a stable internet connection.
-2.We recommend using Chrome or Firefox browsers only.
-3.This test must be taken on the desktop only.
-4.If you run out of time, all attempted questions will be auto-submitted.
-5.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
+2.This is a free assessment.
+3.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
+  </si>
+  <si>
+    <t>1.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
   </si>
   <si>
     <t>1.This online test requires a stable internet connection.
-2.We recommend using Chrome or Firefox browsers only.
-3.This test must be taken on the desktop only.
-4.The total time to complete the test is 60 mins(1 hr).
-5.This is a free assessment.
-7.If you run out of time, all attempted questions will be auto-submitted.
-8.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
-  </si>
-  <si>
-    <t>1.This online test requires a stable internet connection.
-2.We recommend using Chrome or Firefox browsers only.
-3.This test must be taken on the desktop only.
-4.The total time to complete the test is 90 mins(1 hr 30 min).
-5.Once the test starts, you cannot pause it. The test will run continuously for 90 minutes.
-6.The test comprises of 45 questions. There will be no negative marks for wrong answers.
-7.If you run out of time, all attempted questions will be auto-submitted.
-8.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
-  </si>
-  <si>
-    <t>1.This online test requires a stable internet connection.
-2.We recommend using Chrome or Firefox browsers only.
-3.This test must be taken on the desktop only.
-4.The total time to complete the test is 10 mins.
-5.Once the test starts, you cannot pause it. The test will run continuously for 10 minutes.
-6.The test comprises of 4 questions. There will be no negative marks for wrong answers.
-7.If you run out of time, all attempted questions will be auto-submitted.
-8.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
-  </si>
-  <si>
-    <t>Password@123</t>
-  </si>
-  <si>
-    <t>y.adityaprasad@gmail.com</t>
-  </si>
-  <si>
-    <t>khmanagertest@khcodelab.com</t>
+2.The total time to complete the test is 90 mins(1 hr 30 min).
+3.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
+  </si>
+  <si>
+    <t>1.The total time to complete the test is 10 mins.
+2.Once the test starts, you cannot pause it. The test will run continuously for 10 minutes.
+3.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
   </si>
 </sst>
 </file>
@@ -625,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -649,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -732,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -776,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="87" customHeight="1">
+    <row r="2" spans="1:9" ht="75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -790,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>24</v>
@@ -802,10 +784,10 @@
         <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="125.1" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -819,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
@@ -831,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45">
@@ -848,77 +830,77 @@
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="135">
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
+++ b/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\IRA\src\main\resources\com\kh\PRISM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\PRISM\src\main\resources\com\kh\PRISM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35889882-AF64-41D2-AD3B-6F20FFDE4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A2B2C-20AD-4450-9425-F20BE8B74EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
+++ b/src/main/resources/com/kh/PRISM/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\PRISM\src\main\resources\com\kh\PRISM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A2B2C-20AD-4450-9425-F20BE8B74EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF0DB4-3526-42D0-A867-F53B6D98EDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>TC No</t>
   </si>
@@ -192,6 +192,9 @@
     <t>1.The total time to complete the test is 10 mins.
 2.Once the test starts, you cannot pause it. The test will run continuously for 10 minutes.
 3.For any technical queries, please email us at  aditya.prasad@knowledgehut.co.</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -865,13 +868,13 @@
         <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
